--- a/자산분석.xlsx
+++ b/자산분석.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwhalife/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwhalife/Rproject/quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96F228-94C1-5147-B55E-D3BF61CA4BB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234F486-1C06-C745-89B9-979964812BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30940" windowHeight="18540" activeTab="1" xr2:uid="{6D65C825-3D78-814D-92A2-F7FFBFD6A0DB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30940" windowHeight="18540" xr2:uid="{6D65C825-3D78-814D-92A2-F7FFBFD6A0DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020년 지출내역" sheetId="1" r:id="rId1"/>
-    <sheet name="자산분석" sheetId="2" r:id="rId2"/>
+    <sheet name="자산분석(20210510)" sheetId="3" r:id="rId1"/>
+    <sheet name="2020년 지출내역" sheetId="1" r:id="rId2"/>
+    <sheet name="자산분석(2020년)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>1월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -340,14 +341,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">우미린 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전세금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>현 시세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,6 +362,122 @@
   </si>
   <si>
     <t>매매 당시 시세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STX KAN 아파트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국금거래소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국주식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외주식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장 주식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당 주식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털자산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외주식 매수용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산 매수용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택청약 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행 상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정자산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,6 +567,31 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -576,15 +710,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,8 +824,45 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -703,6 +877,1010 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'자산분석(20210510)'!$A$8:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>안정자산</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>현금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>투자</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'자산분석(20210510)'!$B$8:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>부동산</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>저축</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>현금</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>달러</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>한국주식</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>한국주식</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>해외주식</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>해외주식</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>코인</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'자산분석(20210510)'!$E$8:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AA8-5441-950C-72E699562F91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEE02D5-3625-4B4E-8558-5357B2380DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,11 +2179,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731DA53-136A-0C4E-BF11-5C6860F79A52}">
+  <dimension ref="A4:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="24" style="34" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8">
+      <c r="B4" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="37">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="35" customFormat="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="39">
+        <v>28400</v>
+      </c>
+      <c r="E8" s="39">
+        <v>75000</v>
+      </c>
+      <c r="F8" s="39">
+        <v>16700</v>
+      </c>
+      <c r="G8" s="40">
+        <f>(E8-F8-D8)/D8</f>
+        <v>1.0528169014084507</v>
+      </c>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="44"/>
+      <c r="B9" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1290</v>
+      </c>
+      <c r="E9" s="39">
+        <v>1318</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40">
+        <f>(E9-F9-D9)/D9</f>
+        <v>2.1705426356589147E-2</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="39">
+        <v>370</v>
+      </c>
+      <c r="E10" s="39">
+        <v>370</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40">
+        <f>(E10-F10-D10)/D10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="45"/>
+      <c r="B11" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="39">
+        <v>14000</v>
+      </c>
+      <c r="E11" s="39">
+        <v>16600</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:G17" si="0">(E11-F11-D11)/D11</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="44"/>
+      <c r="B12" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="39">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="39">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1010</v>
+      </c>
+      <c r="E13" s="39">
+        <v>989</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40">
+        <f t="shared" si="0"/>
+        <v>-2.0792079207920793E-2</v>
+      </c>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="45"/>
+      <c r="B14" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="39">
+        <v>614</v>
+      </c>
+      <c r="E14" s="39">
+        <v>528</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.14006514657980457</v>
+      </c>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="45"/>
+      <c r="B15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1130</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1158</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="40">
+        <f t="shared" si="0"/>
+        <v>2.4778761061946902E-2</v>
+      </c>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="45"/>
+      <c r="B16" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="36">
+        <v>981</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1075</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="40">
+        <f t="shared" si="0"/>
+        <v>9.5820591233435268E-2</v>
+      </c>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="44"/>
+      <c r="B17" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="36">
+        <v>156</v>
+      </c>
+      <c r="E17" s="36">
+        <v>179</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="40">
+        <f t="shared" si="0"/>
+        <v>0.14743589743589744</v>
+      </c>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" ht="5" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" ht="37" customHeight="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="41">
+        <f>SUM(E8:E17)</f>
+        <v>100817</v>
+      </c>
+      <c r="F19" s="42">
+        <f>E19-F8</f>
+        <v>84117</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD2D186-70DB-2340-8210-A1A8AE8E8D8C}">
   <dimension ref="A2:V22"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2097,12 +3590,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE76A2C-2E2B-0C40-90FB-78A7C8C1E537}">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2118,7 +3611,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="32">
       <c r="A2" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -2135,16 +3628,16 @@
         <v>75</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2155,10 +3648,10 @@
         <v>76</v>
       </c>
       <c r="C4" s="8">
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>640000</v>
+        <v>750000</v>
       </c>
       <c r="E4" s="23">
         <v>43622</v>
@@ -2168,13 +3661,13 @@
       </c>
       <c r="G4" s="24">
         <f>D4-F4</f>
-        <v>190000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="32"/>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8">
         <v>167609</v>
@@ -2190,214 +3683,180 @@
         <v>77</v>
       </c>
       <c r="C6" s="8">
-        <v>27560</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="23"/>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="8">
-        <v>280000</v>
-      </c>
-      <c r="D7" s="8">
-        <v>550000</v>
-      </c>
-      <c r="E7" s="23">
-        <v>42315</v>
-      </c>
-      <c r="F7" s="8">
-        <v>356000</v>
-      </c>
-      <c r="G7" s="24">
-        <f>D7-C7</f>
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="33"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="32">
-      <c r="A10" s="30" t="s">
+    <row r="8" spans="1:7" ht="32">
+      <c r="A8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="F11" s="22" t="s">
-        <v>67</v>
+      <c r="A11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2958465</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>63</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2958465</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="21">
         <v>2958465</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <v>300</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="21">
-        <v>2958465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="5">
-        <v>373</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="21">
-        <v>2958465</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
         <v>103</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="32">
-      <c r="A23" s="30" t="s">
+    <row r="21" spans="1:6" ht="32">
+      <c r="A21" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A23:F23"/>
+  <mergeCells count="4">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/자산분석.xlsx
+++ b/자산분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanwhalife/Rproject/quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234F486-1C06-C745-89B9-979964812BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B9F137-E542-E843-BA42-C2D180C819E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30940" windowHeight="18540" xr2:uid="{6D65C825-3D78-814D-92A2-F7FFBFD6A0DB}"/>
   </bookViews>
@@ -800,6 +800,42 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,42 +858,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +866,28 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -962,6 +983,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -977,6 +1003,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -992,6 +1023,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1007,6 +1043,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1022,6 +1063,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1037,6 +1083,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1054,6 +1105,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1071,6 +1127,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1088,6 +1149,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1105,6 +1171,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-DFF1-2540-90B7-FE9F1E752CCB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2183,303 +2254,303 @@
   <dimension ref="A4:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24" style="34" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="34" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="34"/>
+    <col min="1" max="1" width="14.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="26"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="29">
         <v>44326</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="35" customFormat="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="1:8" s="27" customFormat="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="31">
         <v>28400</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="31">
         <v>75000</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="31">
         <v>16700</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="32">
         <f>(E8-F8-D8)/D8</f>
         <v>1.0528169014084507</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="44"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="31">
         <v>1290</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="31">
         <v>1318</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40">
+      <c r="F9" s="31"/>
+      <c r="G9" s="32">
         <f>(E9-F9-D9)/D9</f>
         <v>2.1705426356589147E-2</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="31">
         <v>370</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="31">
         <v>370</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40">
+      <c r="F10" s="31"/>
+      <c r="G10" s="32">
         <f>(E10-F10-D10)/D10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="45"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="39">
-        <v>14000</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="D11" s="31">
         <v>16600</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40">
+      <c r="E11" s="31">
+        <v>16600</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32">
         <f t="shared" ref="G11:G17" si="0">(E11-F11-D11)/D11</f>
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="H11" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="44"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="31">
         <v>3600</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="31">
         <v>3600</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40">
+      <c r="F12" s="31"/>
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="31">
         <v>1010</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="31">
         <v>989</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40">
+      <c r="F13" s="31"/>
+      <c r="G13" s="32">
         <f t="shared" si="0"/>
         <v>-2.0792079207920793E-2</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="31">
         <v>614</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="31">
         <v>528</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
+      <c r="F14" s="31"/>
+      <c r="G14" s="32">
         <f t="shared" si="0"/>
         <v>-0.14006514657980457</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="45"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="28">
         <v>1130</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="28">
         <v>1158</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="40">
+      <c r="F15" s="28"/>
+      <c r="G15" s="32">
         <f t="shared" si="0"/>
         <v>2.4778761061946902E-2</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="45"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="28">
         <v>981</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="28">
         <v>1075</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="40">
+      <c r="F16" s="28"/>
+      <c r="G16" s="32">
         <f t="shared" si="0"/>
         <v>9.5820591233435268E-2</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="44"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="28">
         <v>156</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="28">
         <v>179</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="40">
+      <c r="F17" s="28"/>
+      <c r="G17" s="32">
         <f t="shared" si="0"/>
         <v>0.14743589743589744</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8" ht="5" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" ht="37" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="41">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33">
         <f>SUM(E8:E17)</f>
         <v>100817</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="34">
         <f>E19-F8</f>
         <v>84117</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2488,6 +2559,11 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G8:G17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2531,33 +2607,33 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="11"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="28"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="40"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
@@ -3610,14 +3686,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="32">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="25"/>
@@ -3641,7 +3717,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3665,7 +3741,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -3678,7 +3754,7 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
@@ -3691,14 +3767,14 @@
       <c r="G6" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="32">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:7">
       <c r="F9" s="22" t="s">
@@ -3842,14 +3918,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
